--- a/doc/api/API一覧.xlsx
+++ b/doc/api/API一覧.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\jc2019\trunk\doc\api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\localhost\nisp\trunk\doc\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941D968B-0F61-4C70-88BF-7882E6EB6242}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3BD8B1A2-3CA6-444B-9462-329C1D6F6F84}"/>
+    <workbookView xWindow="3735" yWindow="60" windowWidth="24300" windowHeight="15255"/>
   </bookViews>
   <sheets>
     <sheet name="API一覧" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,8 +28,144 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>sprite06</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Function
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>function name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Logic function name
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Number of block
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PIC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">man day
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Plan complete coding</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Actual complete coding
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">notes
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="129">
   <si>
     <t>利用者</t>
   </si>
@@ -302,10 +437,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>症例番号管理</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>症例番号管理登録</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -320,13 +451,6 @@
   <si>
     <t>症例番号管理一覧取得</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>症例番号管理取得()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>症例番号管理取得(1件 - bankid)</t>
   </si>
   <si>
     <t>getBankid</t>
@@ -490,23 +614,85 @@
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>症例番号管理取得(1件 - bankid)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>症例番号管理取得(1件)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sprite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディング完了予定日</t>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヨテイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sprite</t>
+  </si>
+  <si>
+    <t>thanhtd</t>
+  </si>
+  <si>
+    <t>manhnt</t>
+  </si>
+  <si>
+    <t>症例番号管理</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Cord</t>
+  </si>
+  <si>
+    <t>Cord_bak</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Bank_caseid</t>
+  </si>
+  <si>
+    <t>Stat_hist</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -515,13 +701,26 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,6 +730,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,33 +939,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1065,30 +1345,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FD8CC4-F1DE-497F-A3F6-D2D608EF2784}">
-  <dimension ref="A1:I68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="45">
       <c r="A1" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>17</v>
@@ -1100,19 +1384,22 @@
         <v>43</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1129,21 +1416,24 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G2" s="1">
         <v>6</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="1"/>
+      <c r="I2" s="13">
         <v>43648</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1157,12 +1447,13 @@
       <c r="G3" s="1">
         <v>6</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="1"/>
+      <c r="I3" s="13">
         <v>43648</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1180,12 +1471,13 @@
       <c r="G4" s="1">
         <v>6</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="1"/>
+      <c r="I4" s="13">
         <v>43649</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1203,12 +1495,13 @@
       <c r="G5" s="1">
         <v>6</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="1"/>
+      <c r="I5" s="13">
         <v>43644</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1226,12 +1519,13 @@
       <c r="G6" s="1">
         <v>6</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="1"/>
+      <c r="I6" s="13">
         <v>43644</v>
       </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1249,12 +1543,13 @@
       <c r="G7" s="1">
         <v>6</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="1"/>
+      <c r="I7" s="13">
         <v>43644</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1272,12 +1567,13 @@
       <c r="G8" s="1">
         <v>6</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="1"/>
+      <c r="I8" s="13">
         <v>43647</v>
       </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1295,12 +1591,13 @@
       <c r="G9" s="1">
         <v>6</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="1"/>
+      <c r="I9" s="13">
         <v>43647</v>
       </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1318,347 +1615,381 @@
       <c r="G10" s="9">
         <v>6</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="9"/>
+      <c r="I10" s="14">
         <v>43649</v>
       </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickTop="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3">
-        <v>6</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E11" s="30">
+        <v>6</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38">
+        <v>43668</v>
+      </c>
+      <c r="J11" s="37"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="1">
-        <v>6</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E12" s="28">
+        <v>6</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="38">
+        <v>43668</v>
+      </c>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="1">
-        <v>6</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E13" s="28">
+        <v>6</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="38">
+        <v>43668</v>
+      </c>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="1">
-        <v>6</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E14" s="28">
+        <v>6</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="38">
+        <v>43668</v>
+      </c>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="1">
-        <v>6</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E15" s="28">
+        <v>6</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="38">
+        <v>43668</v>
+      </c>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="2">
-        <v>6</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
+      <c r="E16" s="39">
+        <v>6</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="38">
+        <v>43668</v>
+      </c>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="3">
-        <v>6</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
+      <c r="E17" s="19">
+        <v>6</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="1">
-        <v>6</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
+      <c r="E18" s="17">
+        <v>6</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="1">
-        <v>6</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="1">
+      <c r="E19" s="17">
+        <v>6</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="1">
-        <v>6</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
+      <c r="E20" s="17">
+        <v>6</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="2">
-        <v>6</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
+      <c r="E21" s="24">
+        <v>6</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="3">
-        <v>6</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="1">
+      <c r="E22" s="19">
+        <v>6</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="1">
-        <v>6</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="1">
+      <c r="E23" s="17">
+        <v>6</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="1">
-        <v>6</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="1">
+      <c r="E24" s="17">
+        <v>6</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="1">
-        <v>6</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="1">
+      <c r="E25" s="17">
+        <v>6</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="1">
-        <v>6</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
+      <c r="E26" s="17">
+        <v>6</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A27" s="17">
         <v>26</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="9">
-        <v>6</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="26">
+        <v>6</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickTop="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1675,21 +2006,24 @@
         <v>6</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G28" s="7">
         <v>5</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="7"/>
+      <c r="I28" s="15">
         <v>43654</v>
       </c>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>49</v>
       </c>
@@ -1703,12 +2037,13 @@
       <c r="G29" s="1">
         <v>5</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="1"/>
+      <c r="I29" s="13">
         <v>43655</v>
       </c>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1726,12 +2061,13 @@
       <c r="G30" s="1">
         <v>5</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="1"/>
+      <c r="I30" s="13">
         <v>43656</v>
       </c>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1749,12 +2085,13 @@
       <c r="G31" s="1">
         <v>5</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="1"/>
+      <c r="I31" s="13">
         <v>43657</v>
       </c>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1772,12 +2109,13 @@
       <c r="G32" s="1">
         <v>6</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H32" s="1"/>
+      <c r="I32" s="13">
         <v>43651</v>
       </c>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1795,12 +2133,13 @@
       <c r="G33" s="1">
         <v>6</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="1"/>
+      <c r="I33" s="13">
         <v>43651</v>
       </c>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1816,10 +2155,11 @@
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H34" s="1"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1835,645 +2175,806 @@
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="H35" s="9"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickTop="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="B36" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="3">
-        <v>6</v>
-      </c>
-      <c r="F36" s="6" t="s">
+      <c r="E36" s="30">
+        <v>6</v>
+      </c>
+      <c r="F36" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="30"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="B37" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="1">
-        <v>6</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E37" s="28">
+        <v>6</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="28"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="1">
-        <v>6</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E38" s="28">
+        <v>6</v>
+      </c>
+      <c r="F38" s="32"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="28"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="1">
-        <v>6</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E39" s="28">
+        <v>6</v>
+      </c>
+      <c r="F39" s="32"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="28"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" thickBot="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="9" t="s">
+      <c r="B40" s="42"/>
+      <c r="C40" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="9">
-        <v>6</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="E40" s="35">
+        <v>6</v>
+      </c>
+      <c r="F40" s="34"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" thickTop="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="7">
-        <v>6</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E41" s="37">
+        <v>6</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="37"/>
+      <c r="H41" s="38">
+        <v>43669</v>
+      </c>
+      <c r="I41" s="38">
+        <v>43670</v>
+      </c>
+      <c r="J41" s="37"/>
+      <c r="K41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="1">
-        <v>6</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E42" s="28">
+        <v>6</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="28"/>
+      <c r="H42" s="38">
+        <v>43669</v>
+      </c>
+      <c r="I42" s="38">
+        <v>43670</v>
+      </c>
+      <c r="J42" s="28"/>
+      <c r="K42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="32"/>
+      <c r="C43" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="1">
-        <v>6</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E43" s="28">
+        <v>6</v>
+      </c>
+      <c r="F43" s="32"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="38">
+        <v>43669</v>
+      </c>
+      <c r="I43" s="38">
+        <v>43670</v>
+      </c>
+      <c r="J43" s="28"/>
+      <c r="K43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="32"/>
+      <c r="C44" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="1">
-        <v>6</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E44" s="28">
+        <v>6</v>
+      </c>
+      <c r="F44" s="32"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="38">
+        <v>43669</v>
+      </c>
+      <c r="I44" s="38">
+        <v>43670</v>
+      </c>
+      <c r="J44" s="28"/>
+      <c r="K44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" thickBot="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="32"/>
+      <c r="C45" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="2">
-        <v>6</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="E45" s="39">
+        <v>6</v>
+      </c>
+      <c r="F45" s="34"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="38">
+        <v>43669</v>
+      </c>
+      <c r="I45" s="38">
+        <v>43670</v>
+      </c>
+      <c r="J45" s="39"/>
+      <c r="K45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="3">
-        <v>6</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E46" s="30">
+        <v>6</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" s="30"/>
+      <c r="H46" s="31">
+        <v>43670</v>
+      </c>
+      <c r="I46" s="31">
+        <v>43670</v>
+      </c>
+      <c r="J46" s="30"/>
+      <c r="K46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="B47" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="1">
-        <v>6</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E47" s="28">
+        <v>6</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" s="28"/>
+      <c r="H47" s="31">
+        <v>43670</v>
+      </c>
+      <c r="I47" s="31">
+        <v>43670</v>
+      </c>
+      <c r="J47" s="28"/>
+      <c r="K47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="B48" s="32"/>
+      <c r="C48" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="1">
-        <v>6</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E48" s="28">
+        <v>6</v>
+      </c>
+      <c r="F48" s="32"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="31">
+        <v>43670</v>
+      </c>
+      <c r="I48" s="31">
+        <v>43670</v>
+      </c>
+      <c r="J48" s="28"/>
+      <c r="K48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="B49" s="32"/>
+      <c r="C49" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="1">
-        <v>6</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E49" s="28">
+        <v>6</v>
+      </c>
+      <c r="F49" s="32"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="31">
+        <v>43670</v>
+      </c>
+      <c r="I49" s="31">
+        <v>43670</v>
+      </c>
+      <c r="J49" s="28"/>
+      <c r="K49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="1">
-        <v>6</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="32"/>
+      <c r="C50" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="28">
+        <v>6</v>
+      </c>
+      <c r="F50" s="32"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="31">
+        <v>43670</v>
+      </c>
+      <c r="I50" s="31">
+        <v>43670</v>
+      </c>
+      <c r="J50" s="28"/>
+      <c r="K50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="9" t="s">
+      <c r="B51" s="34"/>
+      <c r="C51" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="9">
-        <v>6</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="9"/>
-    </row>
-    <row r="52" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="E51" s="35">
+        <v>6</v>
+      </c>
+      <c r="F51" s="34"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="31">
+        <v>43670</v>
+      </c>
+      <c r="I51" s="31">
+        <v>43670</v>
+      </c>
+      <c r="J51" s="35"/>
+      <c r="K51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" thickTop="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="B52" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="3">
-        <v>6</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E52" s="30">
+        <v>6</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="30"/>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="B53" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="1">
-        <v>6</v>
-      </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E53" s="28">
+        <v>6</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="28"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="B54" s="32"/>
+      <c r="C54" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="1">
-        <v>6</v>
-      </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E54" s="28">
+        <v>6</v>
+      </c>
+      <c r="F54" s="32"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="28"/>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="B55" s="32"/>
+      <c r="C55" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="1">
-        <v>6</v>
-      </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E55" s="28">
+        <v>6</v>
+      </c>
+      <c r="F55" s="32"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="28"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" thickBot="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="9" t="s">
+      <c r="B56" s="34"/>
+      <c r="C56" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="35">
+        <v>6</v>
+      </c>
+      <c r="F56" s="34"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="35"/>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A57" s="28">
+        <v>56</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="30">
+        <v>6</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G57" s="30"/>
+      <c r="H57" s="31">
+        <v>43671</v>
+      </c>
+      <c r="I57" s="31"/>
+      <c r="J57" s="30"/>
+      <c r="K57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A58" s="28">
+        <v>57</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D58" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="28">
+        <v>6</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G58" s="28"/>
+      <c r="H58" s="31">
+        <v>43671</v>
+      </c>
+      <c r="I58" s="33"/>
+      <c r="J58" s="28"/>
+      <c r="K58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A59" s="28">
+        <v>58</v>
+      </c>
+      <c r="B59" s="32"/>
+      <c r="C59" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="28">
+        <v>6</v>
+      </c>
+      <c r="F59" s="32"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="31">
+        <v>43671</v>
+      </c>
+      <c r="I59" s="33"/>
+      <c r="J59" s="28"/>
+      <c r="K59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A60" s="28">
+        <v>59</v>
+      </c>
+      <c r="B60" s="32"/>
+      <c r="C60" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="28">
+        <v>6</v>
+      </c>
+      <c r="F60" s="32"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="31">
+        <v>43671</v>
+      </c>
+      <c r="I60" s="33"/>
+      <c r="J60" s="28"/>
+      <c r="K60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A61" s="28">
+        <v>60</v>
+      </c>
+      <c r="B61" s="32"/>
+      <c r="C61" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="28">
+        <v>6</v>
+      </c>
+      <c r="F61" s="32"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="31">
+        <v>43671</v>
+      </c>
+      <c r="I61" s="33"/>
+      <c r="J61" s="28"/>
+      <c r="K61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A62" s="28">
+        <v>61</v>
+      </c>
+      <c r="B62" s="34"/>
+      <c r="C62" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="9">
-        <v>6</v>
-      </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="3">
-        <v>6</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="1">
-        <v>6</v>
-      </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="1">
-        <v>6</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="1">
-        <v>6</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" s="1">
-        <v>6</v>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="9">
-        <v>6</v>
-      </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="E62" s="35">
+        <v>6</v>
+      </c>
+      <c r="F62" s="34"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="31">
+        <v>43671</v>
+      </c>
+      <c r="I62" s="36"/>
+      <c r="J62" s="35"/>
+      <c r="K62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" thickTop="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E63" s="3">
         <v>6</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G63" s="3"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H63" s="3"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E64" s="1">
         <v>6</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H64" s="1"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E65" s="1">
         <v>6</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H65" s="1"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E66" s="1">
         <v>6</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H66" s="1"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" thickBot="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E67" s="9">
         <v>6</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="9"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="9"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/api/API一覧.xlsx
+++ b/doc/api/API一覧.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\localhost\nisp\trunk\doc\api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\code\doc\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="API一覧" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1349,7 +1349,7 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -2199,7 +2199,9 @@
         <v>109</v>
       </c>
       <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
+      <c r="H36" s="31">
+        <v>43672</v>
+      </c>
       <c r="I36" s="31"/>
       <c r="J36" s="30"/>
     </row>
@@ -2223,7 +2225,9 @@
         <v>115</v>
       </c>
       <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
+      <c r="H37" s="33">
+        <v>43672</v>
+      </c>
       <c r="I37" s="33"/>
       <c r="J37" s="28"/>
     </row>
@@ -2243,7 +2247,9 @@
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
+      <c r="H38" s="33">
+        <v>43672</v>
+      </c>
       <c r="I38" s="33"/>
       <c r="J38" s="28"/>
     </row>
@@ -2263,7 +2269,9 @@
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
+      <c r="H39" s="33">
+        <v>43672</v>
+      </c>
       <c r="I39" s="33"/>
       <c r="J39" s="28"/>
     </row>
@@ -2283,7 +2291,9 @@
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
+      <c r="H40" s="36">
+        <v>43672</v>
+      </c>
       <c r="I40" s="36"/>
       <c r="J40" s="35"/>
     </row>
@@ -2620,7 +2630,9 @@
         <v>108</v>
       </c>
       <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
+      <c r="H52" s="31">
+        <v>43675</v>
+      </c>
       <c r="I52" s="31"/>
       <c r="J52" s="30"/>
     </row>
@@ -2644,7 +2656,9 @@
         <v>115</v>
       </c>
       <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
+      <c r="H53" s="33">
+        <v>43676</v>
+      </c>
       <c r="I53" s="33"/>
       <c r="J53" s="28"/>
     </row>
@@ -2664,7 +2678,9 @@
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
+      <c r="H54" s="33">
+        <v>43677</v>
+      </c>
       <c r="I54" s="33"/>
       <c r="J54" s="28"/>
     </row>
@@ -2684,7 +2700,9 @@
       </c>
       <c r="F55" s="32"/>
       <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
+      <c r="H55" s="33">
+        <v>43678</v>
+      </c>
       <c r="I55" s="33"/>
       <c r="J55" s="28"/>
     </row>
@@ -2704,7 +2722,9 @@
       </c>
       <c r="F56" s="34"/>
       <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
+      <c r="H56" s="33">
+        <v>43678</v>
+      </c>
       <c r="I56" s="36"/>
       <c r="J56" s="35"/>
     </row>
@@ -2731,7 +2751,9 @@
       <c r="H57" s="31">
         <v>43671</v>
       </c>
-      <c r="I57" s="31"/>
+      <c r="I57" s="31">
+        <v>43671</v>
+      </c>
       <c r="J57" s="30"/>
       <c r="K57" t="s">
         <v>119</v>
@@ -2760,7 +2782,9 @@
       <c r="H58" s="31">
         <v>43671</v>
       </c>
-      <c r="I58" s="33"/>
+      <c r="I58" s="31">
+        <v>43671</v>
+      </c>
       <c r="J58" s="28"/>
       <c r="K58" t="s">
         <v>119</v>
@@ -2785,7 +2809,9 @@
       <c r="H59" s="31">
         <v>43671</v>
       </c>
-      <c r="I59" s="33"/>
+      <c r="I59" s="31">
+        <v>43671</v>
+      </c>
       <c r="J59" s="28"/>
       <c r="K59" t="s">
         <v>119</v>
@@ -2810,7 +2836,9 @@
       <c r="H60" s="31">
         <v>43671</v>
       </c>
-      <c r="I60" s="33"/>
+      <c r="I60" s="31">
+        <v>43671</v>
+      </c>
       <c r="J60" s="28"/>
       <c r="K60" t="s">
         <v>118</v>
@@ -2835,7 +2863,9 @@
       <c r="H61" s="31">
         <v>43671</v>
       </c>
-      <c r="I61" s="33"/>
+      <c r="I61" s="31">
+        <v>43671</v>
+      </c>
       <c r="J61" s="28"/>
       <c r="K61" t="s">
         <v>118</v>
@@ -2860,7 +2890,9 @@
       <c r="H62" s="31">
         <v>43671</v>
       </c>
-      <c r="I62" s="36"/>
+      <c r="I62" s="31">
+        <v>43671</v>
+      </c>
       <c r="J62" s="35"/>
       <c r="K62" t="s">
         <v>118</v>

--- a/doc/api/API一覧.xlsx
+++ b/doc/api/API一覧.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\code\doc\api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\jc2019\trunk\doc\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941D968B-0F61-4C70-88BF-7882E6EB6242}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="60" windowWidth="24300" windowHeight="15255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3BD8B1A2-3CA6-444B-9462-329C1D6F6F84}"/>
   </bookViews>
   <sheets>
     <sheet name="API一覧" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,144 +29,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>sprite06</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Function
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>function name</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Logic function name
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Number of block
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PIC</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">man day
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Plan complete coding</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Actual complete coding
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">notes
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
   <si>
     <t>利用者</t>
   </si>
@@ -437,6 +302,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>症例番号管理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>症例番号管理登録</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -451,6 +320,13 @@
   <si>
     <t>症例番号管理一覧取得</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>症例番号管理取得()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>症例番号管理取得(1件 - bankid)</t>
   </si>
   <si>
     <t>getBankid</t>
@@ -614,85 +490,23 @@
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>症例番号管理取得(1件 - bankid)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>症例番号管理取得(1件)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sprite</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>prime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コーディング完了予定日</t>
-    <rPh sb="6" eb="8">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ヨテイビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sprite</t>
-  </si>
-  <si>
-    <t>thanhtd</t>
-  </si>
-  <si>
-    <t>manhnt</t>
-  </si>
-  <si>
-    <t>症例番号管理</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Bank</t>
-  </si>
-  <si>
-    <t>Cord</t>
-  </si>
-  <si>
-    <t>Cord_bak</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Bank_caseid</t>
-  </si>
-  <si>
-    <t>Stat_hist</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -701,26 +515,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,18 +531,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,7 +688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,102 +728,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1345,34 +1065,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FD8CC4-F1DE-497F-A3F6-D2D608EF2784}">
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>17</v>
@@ -1384,22 +1100,19 @@
         <v>43</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="43" t="s">
-        <v>116</v>
+      <c r="H1" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1416,24 +1129,21 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G2" s="1">
         <v>6</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="13">
+      <c r="H2" s="16">
         <v>43648</v>
       </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1447,13 +1157,12 @@
       <c r="G3" s="1">
         <v>6</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="13">
+      <c r="H3" s="16">
         <v>43648</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1471,13 +1180,12 @@
       <c r="G4" s="1">
         <v>6</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="13">
+      <c r="H4" s="16">
         <v>43649</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1495,13 +1203,12 @@
       <c r="G5" s="1">
         <v>6</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="13">
+      <c r="H5" s="16">
         <v>43644</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1519,13 +1226,12 @@
       <c r="G6" s="1">
         <v>6</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="13">
+      <c r="H6" s="16">
         <v>43644</v>
       </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1543,13 +1249,12 @@
       <c r="G7" s="1">
         <v>6</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="13">
+      <c r="H7" s="16">
         <v>43644</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1567,13 +1272,12 @@
       <c r="G8" s="1">
         <v>6</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="13">
+      <c r="H8" s="16">
         <v>43647</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1591,13 +1295,12 @@
       <c r="G9" s="1">
         <v>6</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="13">
+      <c r="H9" s="16">
         <v>43647</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1615,381 +1318,347 @@
       <c r="G10" s="9">
         <v>6</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="14">
+      <c r="H10" s="17">
         <v>43649</v>
       </c>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickTop="1">
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="30">
-        <v>6</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38">
-        <v>43668</v>
-      </c>
-      <c r="J11" s="37"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="E11" s="3">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="28" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="28">
-        <v>6</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="38">
-        <v>43668</v>
-      </c>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="28" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="28">
-        <v>6</v>
-      </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="38">
-        <v>43668</v>
-      </c>
-      <c r="J13" s="28"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="28" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="28">
-        <v>6</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="38">
-        <v>43668</v>
-      </c>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="E14" s="1">
+        <v>6</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="28">
-        <v>6</v>
-      </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="38">
-        <v>43668</v>
-      </c>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="39">
-        <v>6</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="38">
-        <v>43668</v>
-      </c>
-      <c r="J16" s="35"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A17" s="17">
+      <c r="E16" s="2">
+        <v>6</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="19">
-        <v>6</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="17">
+      <c r="E17" s="3">
+        <v>6</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="17">
-        <v>6</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="17">
+      <c r="E18" s="1">
+        <v>6</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="17" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="17">
-        <v>6</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="17">
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="17">
-        <v>6</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A21" s="17">
+      <c r="E20" s="1">
+        <v>6</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="24">
-        <v>6</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A22" s="17">
+      <c r="E21" s="2">
+        <v>6</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="19">
-        <v>6</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="17">
+      <c r="E22" s="3">
+        <v>6</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="17">
-        <v>6</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="17">
+      <c r="E23" s="1">
+        <v>6</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="17" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="17">
-        <v>6</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="17">
+      <c r="E24" s="1">
+        <v>6</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="17">
-        <v>6</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="17">
+      <c r="E25" s="1">
+        <v>6</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="17" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="17">
-        <v>6</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A27" s="17">
+      <c r="E26" s="1">
+        <v>6</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="26">
-        <v>6</v>
-      </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" thickTop="1">
+      <c r="E27" s="9">
+        <v>6</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2006,24 +1675,21 @@
         <v>6</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G28" s="7">
         <v>5</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="15">
+      <c r="H28" s="18">
         <v>43654</v>
       </c>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="B29" s="4"/>
       <c r="C29" s="1" t="s">
         <v>49</v>
       </c>
@@ -2037,13 +1703,12 @@
       <c r="G29" s="1">
         <v>5</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="13">
+      <c r="H29" s="16">
         <v>43655</v>
       </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2061,13 +1726,12 @@
       <c r="G30" s="1">
         <v>5</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="13">
+      <c r="H30" s="16">
         <v>43656</v>
       </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2085,13 +1749,12 @@
       <c r="G31" s="1">
         <v>5</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="13">
+      <c r="H31" s="16">
         <v>43657</v>
       </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2109,13 +1772,12 @@
       <c r="G32" s="1">
         <v>6</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="13">
+      <c r="H32" s="16">
         <v>43651</v>
       </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2133,13 +1795,12 @@
       <c r="G33" s="1">
         <v>6</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="13">
+      <c r="H33" s="16">
         <v>43651</v>
       </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2155,11 +1816,10 @@
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1">
+      <c r="H34" s="16"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2175,838 +1835,645 @@
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickTop="1">
+      <c r="H35" s="17"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="30" t="s">
+      <c r="B36" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="30">
-        <v>6</v>
-      </c>
-      <c r="F36" s="29" t="s">
+      <c r="E36" s="3">
+        <v>6</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="31">
-        <v>43672</v>
-      </c>
-      <c r="I36" s="31"/>
-      <c r="J36" s="30"/>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="G36" s="3"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="28" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="28">
-        <v>6</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="G37" s="28"/>
-      <c r="H37" s="33">
-        <v>43672</v>
-      </c>
-      <c r="I37" s="33"/>
-      <c r="J37" s="28"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="E37" s="1">
+        <v>6</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="28" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="28">
-        <v>6</v>
-      </c>
-      <c r="F38" s="32"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="33">
-        <v>43672</v>
-      </c>
-      <c r="I38" s="33"/>
-      <c r="J38" s="28"/>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="E38" s="1">
+        <v>6</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="28" t="s">
+      <c r="B39" s="14"/>
+      <c r="C39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="28">
-        <v>6</v>
-      </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="33">
-        <v>43672</v>
-      </c>
-      <c r="I39" s="33"/>
-      <c r="J39" s="28"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1">
+      <c r="E39" s="1">
+        <v>6</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="35" t="s">
+      <c r="B40" s="15"/>
+      <c r="C40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="35">
-        <v>6</v>
-      </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36">
-        <v>43672</v>
-      </c>
-      <c r="I40" s="36"/>
-      <c r="J40" s="35"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" thickTop="1">
+      <c r="E40" s="9">
+        <v>6</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="37">
-        <v>6</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="G41" s="37"/>
-      <c r="H41" s="38">
-        <v>43669</v>
-      </c>
-      <c r="I41" s="38">
-        <v>43670</v>
-      </c>
-      <c r="J41" s="37"/>
-      <c r="K41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="E41" s="7">
+        <v>6</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="28" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="28">
-        <v>6</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G42" s="28"/>
-      <c r="H42" s="38">
-        <v>43669</v>
-      </c>
-      <c r="I42" s="38">
-        <v>43670</v>
-      </c>
-      <c r="J42" s="28"/>
-      <c r="K42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="E42" s="1">
+        <v>6</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="28" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="28">
-        <v>6</v>
-      </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="38">
-        <v>43669</v>
-      </c>
-      <c r="I43" s="38">
-        <v>43670</v>
-      </c>
-      <c r="J43" s="28"/>
-      <c r="K43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="E43" s="1">
+        <v>6</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="28" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="28">
-        <v>6</v>
-      </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="38">
-        <v>43669</v>
-      </c>
-      <c r="I44" s="38">
-        <v>43670</v>
-      </c>
-      <c r="J44" s="28"/>
-      <c r="K44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" thickBot="1">
+      <c r="E44" s="1">
+        <v>6</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="39" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="39">
-        <v>6</v>
-      </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="38">
-        <v>43669</v>
-      </c>
-      <c r="I45" s="38">
-        <v>43670</v>
-      </c>
-      <c r="J45" s="39"/>
-      <c r="K45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="E45" s="2">
+        <v>6</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="30" t="s">
+      <c r="B46" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="C46" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="30">
-        <v>6</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46" s="30"/>
-      <c r="H46" s="31">
-        <v>43670</v>
-      </c>
-      <c r="I46" s="31">
-        <v>43670</v>
-      </c>
-      <c r="J46" s="30"/>
-      <c r="K46" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="E46" s="3">
+        <v>6</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="28" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="28">
-        <v>6</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G47" s="28"/>
-      <c r="H47" s="31">
-        <v>43670</v>
-      </c>
-      <c r="I47" s="31">
-        <v>43670</v>
-      </c>
-      <c r="J47" s="28"/>
-      <c r="K47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="E47" s="1">
+        <v>6</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="28" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="28">
-        <v>6</v>
-      </c>
-      <c r="F48" s="32"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="31">
-        <v>43670</v>
-      </c>
-      <c r="I48" s="31">
-        <v>43670</v>
-      </c>
-      <c r="J48" s="28"/>
-      <c r="K48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="E48" s="1">
+        <v>6</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="28" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="28">
-        <v>6</v>
-      </c>
-      <c r="F49" s="32"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="31">
-        <v>43670</v>
-      </c>
-      <c r="I49" s="31">
-        <v>43670</v>
-      </c>
-      <c r="J49" s="28"/>
-      <c r="K49" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="E49" s="1">
+        <v>6</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" s="28">
-        <v>6</v>
-      </c>
-      <c r="F50" s="32"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="31">
-        <v>43670</v>
-      </c>
-      <c r="I50" s="31">
-        <v>43670</v>
-      </c>
-      <c r="J50" s="28"/>
-      <c r="K50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B50" s="4"/>
+      <c r="C50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="1">
+        <v>6</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="34"/>
-      <c r="C51" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="35" t="s">
+      <c r="B51" s="5"/>
+      <c r="C51" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="35">
-        <v>6</v>
-      </c>
-      <c r="F51" s="34"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="31">
-        <v>43670</v>
-      </c>
-      <c r="I51" s="31">
-        <v>43670</v>
-      </c>
-      <c r="J51" s="35"/>
-      <c r="K51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" thickTop="1">
+      <c r="E51" s="9">
+        <v>6</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="30" t="s">
+      <c r="B52" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="30">
-        <v>6</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="G52" s="30"/>
-      <c r="H52" s="31">
-        <v>43675</v>
-      </c>
-      <c r="I52" s="31"/>
-      <c r="J52" s="30"/>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="E52" s="3">
+        <v>6</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="28" t="s">
+      <c r="B53" s="4"/>
+      <c r="C53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="28">
-        <v>6</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="G53" s="28"/>
-      <c r="H53" s="33">
-        <v>43676</v>
-      </c>
-      <c r="I53" s="33"/>
-      <c r="J53" s="28"/>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="E53" s="1">
+        <v>6</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="28" t="s">
+      <c r="B54" s="4"/>
+      <c r="C54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="28">
-        <v>6</v>
-      </c>
-      <c r="F54" s="32"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="33">
-        <v>43677</v>
-      </c>
-      <c r="I54" s="33"/>
-      <c r="J54" s="28"/>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="E54" s="1">
+        <v>6</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="28" t="s">
+      <c r="B55" s="4"/>
+      <c r="C55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="28">
-        <v>6</v>
-      </c>
-      <c r="F55" s="32"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="33">
-        <v>43678</v>
-      </c>
-      <c r="I55" s="33"/>
-      <c r="J55" s="28"/>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1">
+      <c r="E55" s="1">
+        <v>6</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" s="35" t="s">
+      <c r="B56" s="5"/>
+      <c r="C56" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="35">
-        <v>6</v>
-      </c>
-      <c r="F56" s="34"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="33">
-        <v>43678</v>
-      </c>
-      <c r="I56" s="36"/>
-      <c r="J56" s="35"/>
-    </row>
-    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="28">
+      <c r="E56" s="9">
+        <v>6</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D57" s="30" t="s">
+      <c r="B57" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="30">
-        <v>6</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="G57" s="30"/>
-      <c r="H57" s="31">
-        <v>43671</v>
-      </c>
-      <c r="I57" s="31">
-        <v>43671</v>
-      </c>
-      <c r="J57" s="30"/>
-      <c r="K57" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="28">
+      <c r="E57" s="3">
+        <v>6</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" s="28" t="s">
+      <c r="B58" s="4"/>
+      <c r="C58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="28">
-        <v>6</v>
-      </c>
-      <c r="F58" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="G58" s="28"/>
-      <c r="H58" s="31">
-        <v>43671</v>
-      </c>
-      <c r="I58" s="31">
-        <v>43671</v>
-      </c>
-      <c r="J58" s="28"/>
-      <c r="K58" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="28">
+      <c r="E58" s="1">
+        <v>6</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" s="28" t="s">
+      <c r="B59" s="4"/>
+      <c r="C59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="28">
-        <v>6</v>
-      </c>
-      <c r="F59" s="32"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="31">
-        <v>43671</v>
-      </c>
-      <c r="I59" s="31">
-        <v>43671</v>
-      </c>
-      <c r="J59" s="28"/>
-      <c r="K59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="28">
+      <c r="E59" s="1">
+        <v>6</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D60" s="28" t="s">
+      <c r="B60" s="4"/>
+      <c r="C60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="28">
-        <v>6</v>
-      </c>
-      <c r="F60" s="32"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="31">
-        <v>43671</v>
-      </c>
-      <c r="I60" s="31">
-        <v>43671</v>
-      </c>
-      <c r="J60" s="28"/>
-      <c r="K60" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="28">
+      <c r="E60" s="1">
+        <v>6</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="32"/>
-      <c r="C61" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E61" s="28">
-        <v>6</v>
-      </c>
-      <c r="F61" s="32"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="31">
-        <v>43671</v>
-      </c>
-      <c r="I61" s="31">
-        <v>43671</v>
-      </c>
-      <c r="J61" s="28"/>
-      <c r="K61" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="28">
+      <c r="B61" s="4"/>
+      <c r="C61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="1">
+        <v>6</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="34"/>
-      <c r="C62" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D62" s="35" t="s">
+      <c r="B62" s="5"/>
+      <c r="C62" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="35">
-        <v>6</v>
-      </c>
-      <c r="F62" s="34"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="31">
-        <v>43671</v>
-      </c>
-      <c r="I62" s="31">
-        <v>43671</v>
-      </c>
-      <c r="J62" s="35"/>
-      <c r="K62" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="15.75" thickTop="1">
+      <c r="E62" s="9">
+        <v>6</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="9"/>
+    </row>
+    <row r="63" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E63" s="3">
         <v>6</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="H63" s="19"/>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E64" s="1">
         <v>6</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="H64" s="16"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E65" s="1">
         <v>6</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="H65" s="16"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E66" s="1">
         <v>6</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" thickBot="1">
+      <c r="H66" s="16"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E67" s="9">
         <v>6</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="9"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" thickTop="1"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>